--- a/RawData/cropdata_master.xlsx
+++ b/RawData/cropdata_master.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malgren/Documents/Mines/N&amp;P/NANI_NAPI/NANI_NAPI_R/RawData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malgren/Documents/Mines/N_P/NANI_NAPI/CSNAPNIv1/RawData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2789BCAA-32BA-3A4F-B85B-D94BDE412B6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA40C4F-5242-9445-9BAC-036BFAC8379D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2200" yWindow="600" windowWidth="33600" windowHeight="19700" xr2:uid="{3F1BC08B-9A45-1844-AD4F-708445EA80F5}"/>
+    <workbookView xWindow="2200" yWindow="680" windowWidth="33600" windowHeight="19700" activeTab="3" xr2:uid="{3F1BC08B-9A45-1844-AD4F-708445EA80F5}"/>
   </bookViews>
   <sheets>
     <sheet name="cropdata_master" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
   <definedNames>
     <definedName name="cropdata" localSheetId="3">cropdata!$A$1:$R$19</definedName>
     <definedName name="cropdata" localSheetId="0">cropdata_master!$B$3:$S$21</definedName>
+    <definedName name="cropdata_1" localSheetId="3">cropdata!$A$1:$R$19</definedName>
     <definedName name="cropdata_key" localSheetId="2">cropdata_key!$A$1:$R$20</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -90,6 +91,29 @@
     </textPr>
   </connection>
   <connection id="3" xr16:uid="{20803975-85D3-A640-9EC9-CECA51E52708}" name="cropdata1" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr sourceFile="/Users/malgren/Documents/Mines/N&amp;P/NANI_NAPI/NANI_NAPI_R/cropdata.txt">
+      <textFields count="17">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="4" xr16:uid="{00567003-82FA-754D-86FB-77F2BC8FE99A}" name="cropdata2" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr sourceFile="/Users/malgren/Documents/Mines/N&amp;P/NANI_NAPI/NANI_NAPI_R/cropdata.txt">
       <textFields count="17">
         <textField/>
@@ -2427,6 +2451,10 @@
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="cropdata_1" connectionId="4" xr16:uid="{994164A7-0F34-F942-89CE-E318B45C59C1}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="cropdata" connectionId="3" xr16:uid="{2AB7820C-7470-F045-9D56-F51949E9C187}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
@@ -2729,8 +2757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E064018E-7997-DE4B-A1B3-2FFB85EE4AD0}">
   <dimension ref="A2:S48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3:J21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2738,7 +2766,7 @@
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.83203125" customWidth="1"/>
     <col min="3" max="4" width="8.83203125" customWidth="1"/>
-    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" customWidth="1"/>
     <col min="7" max="7" width="15.83203125" customWidth="1"/>
     <col min="8" max="8" width="17.1640625" bestFit="1" customWidth="1"/>
@@ -3759,7 +3787,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="8">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="C19" s="2">
         <v>3.6600000000000001E-2</v>
@@ -3818,7 +3846,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="8">
-        <v>0.92</v>
+        <v>0.9</v>
       </c>
       <c r="C20" s="2">
         <v>0.1045</v>
@@ -3998,11 +4026,11 @@
       </c>
       <c r="E30">
         <f>$B$47/B30</f>
-        <v>7.9205799967045651</v>
+        <v>7.7483934750370738</v>
       </c>
       <c r="F30">
         <f>$B$46/B30</f>
-        <v>2.864557587740979</v>
+        <v>2.7137913989125066</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
@@ -4020,11 +4048,11 @@
       </c>
       <c r="E31">
         <f t="shared" ref="E31:E48" si="3">$B$47/B31</f>
-        <v>27.125090285301557</v>
+        <v>26.53541440953413</v>
       </c>
       <c r="F31">
         <f t="shared" ref="F31:F48" si="4">$B$46/B31</f>
-        <v>9.8100622968580726</v>
+        <v>9.293743228602386</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
@@ -4042,11 +4070,11 @@
       </c>
       <c r="E32">
         <f t="shared" si="3"/>
-        <v>5.0467691509364192</v>
+        <v>4.9370567780899748</v>
       </c>
       <c r="F32">
         <f t="shared" si="4"/>
-        <v>1.8252149300817484</v>
+        <v>1.7291509863932355</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -4064,11 +4092,11 @@
       </c>
       <c r="E33">
         <f t="shared" si="3"/>
-        <v>5.2491735854858543</v>
+        <v>5.1350611162361615</v>
       </c>
       <c r="F33">
         <f t="shared" si="4"/>
-        <v>1.898416533881248</v>
+        <v>1.7984998742032876</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -4086,11 +4114,11 @@
       </c>
       <c r="E34">
         <f t="shared" si="3"/>
-        <v>5.1233352091540052</v>
+        <v>5.0119583567810917</v>
       </c>
       <c r="F34">
         <f t="shared" si="4"/>
-        <v>1.8529058167493735</v>
+        <v>1.7553844579730908</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -4108,11 +4136,11 @@
       </c>
       <c r="E35">
         <f t="shared" si="3"/>
-        <v>5.4879574183824031</v>
+        <v>5.3686539962436548</v>
       </c>
       <c r="F35">
         <f t="shared" si="4"/>
-        <v>1.984775113762806</v>
+        <v>1.8803132656700268</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -4130,11 +4158,11 @@
       </c>
       <c r="E36">
         <f t="shared" si="3"/>
-        <v>13.03133810453264</v>
+        <v>12.748048145738451</v>
       </c>
       <c r="F36">
         <f t="shared" si="4"/>
-        <v>4.7129147690305793</v>
+        <v>4.4648666232921279</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -4152,11 +4180,11 @@
       </c>
       <c r="E37">
         <f t="shared" si="3"/>
-        <v>26.958459604722357</v>
+        <v>26.372406135054476</v>
       </c>
       <c r="F37">
         <f t="shared" si="4"/>
-        <v>9.7497986317474137</v>
+        <v>9.2366513353396567</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -4174,11 +4202,11 @@
       </c>
       <c r="E38">
         <f t="shared" si="3"/>
-        <v>5.0363450823605342</v>
+        <v>4.9268593197005224</v>
       </c>
       <c r="F38">
         <f t="shared" si="4"/>
-        <v>1.8214449606165568</v>
+        <v>1.7255794363735804</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -4196,11 +4224,11 @@
       </c>
       <c r="E39">
         <f t="shared" si="3"/>
-        <v>3.8152890545770077</v>
+        <v>3.7323479881731592</v>
       </c>
       <c r="F39">
         <f t="shared" si="4"/>
-        <v>1.3798377410821985</v>
+        <v>1.3072147020778722</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -4218,11 +4246,11 @@
       </c>
       <c r="E40">
         <f t="shared" si="3"/>
-        <v>8.7574281657539661</v>
+        <v>8.5670492925854003</v>
       </c>
       <c r="F40">
         <f t="shared" si="4"/>
-        <v>3.1672121627133909</v>
+        <v>3.0005167857284758</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -4240,11 +4268,11 @@
       </c>
       <c r="E41">
         <f t="shared" si="3"/>
-        <v>1.6242399310196416</v>
+        <v>1.5889303673018231</v>
       </c>
       <c r="F41">
         <f t="shared" si="4"/>
-        <v>0.58742274185097709</v>
+        <v>0.55650575543776781</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -4262,11 +4290,11 @@
       </c>
       <c r="E42">
         <f t="shared" si="3"/>
-        <v>3.8456000000000001</v>
+        <v>3.7619999999999996</v>
       </c>
       <c r="F42">
         <f t="shared" si="4"/>
-        <v>1.3908</v>
+        <v>1.3176000000000001</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -4284,11 +4312,11 @@
       </c>
       <c r="E43">
         <f t="shared" si="3"/>
-        <v>4.8070000000000004</v>
+        <v>4.7024999999999997</v>
       </c>
       <c r="F43">
         <f t="shared" si="4"/>
-        <v>1.7385000000000002</v>
+        <v>1.6470000000000002</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -4306,11 +4334,11 @@
       </c>
       <c r="E44">
         <f t="shared" si="3"/>
-        <v>7.6839785969146197</v>
+        <v>7.5169355839382144</v>
       </c>
       <c r="F44">
         <f t="shared" si="4"/>
-        <v>2.7789883067892798</v>
+        <v>2.6327257643266861</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -4328,11 +4356,11 @@
       </c>
       <c r="E45">
         <f t="shared" si="3"/>
-        <v>2.3849070854934618</v>
+        <v>2.3330612792870817</v>
       </c>
       <c r="F45">
         <f t="shared" si="4"/>
-        <v>0.86252568506976979</v>
+        <v>0.8171295963818872</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -4342,15 +4370,15 @@
       </c>
       <c r="B46">
         <f t="shared" si="1"/>
-        <v>3.4770000000000002E-2</v>
+        <v>3.2940000000000004E-2</v>
       </c>
       <c r="D46">
         <f t="shared" si="2"/>
-        <v>1.2355910267471957</v>
+        <v>1.3042349726775955</v>
       </c>
       <c r="E46">
         <f t="shared" si="3"/>
-        <v>2.7650273224043715</v>
+        <v>2.8551912568306004</v>
       </c>
       <c r="F46">
         <f t="shared" si="4"/>
@@ -4364,11 +4392,11 @@
       </c>
       <c r="B47">
         <f t="shared" si="1"/>
-        <v>9.6140000000000003E-2</v>
+        <v>9.4049999999999995E-2</v>
       </c>
       <c r="D47">
         <f t="shared" si="2"/>
-        <v>0.4468639484085708</v>
+        <v>0.45679425837320575</v>
       </c>
       <c r="E47">
         <f t="shared" si="3"/>
@@ -4376,7 +4404,7 @@
       </c>
       <c r="F47">
         <f t="shared" si="4"/>
-        <v>0.36166007905138342</v>
+        <v>0.35023923444976085</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -4394,11 +4422,11 @@
       </c>
       <c r="E48">
         <f t="shared" si="3"/>
-        <v>2.2378175808572793</v>
+        <v>2.1891693725777732</v>
       </c>
       <c r="F48">
         <f t="shared" si="4"/>
-        <v>0.80932928319541919</v>
+        <v>0.76673300513250242</v>
       </c>
     </row>
   </sheetData>
@@ -4967,1073 +4995,1073 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{644969D2-BCB8-7548-8157-70DEE2D23292}">
   <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1">
+      <c r="A1" s="3">
         <v>0.86699999999999999</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="3">
         <v>1.4E-2</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="5">
         <v>3.1700000000000001E-3</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="3">
         <v>0.04</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="3">
         <v>0.96</v>
       </c>
-      <c r="F1">
+      <c r="F1" s="3">
         <v>0.1</v>
       </c>
-      <c r="G1">
+      <c r="G1" s="3">
         <v>0.1</v>
       </c>
-      <c r="H1">
+      <c r="H1" s="2">
         <v>3620</v>
       </c>
-      <c r="I1">
+      <c r="I1" s="2">
         <v>81.2</v>
       </c>
-      <c r="J1">
-        <v>1</v>
-      </c>
-      <c r="K1">
+      <c r="J1" s="2">
+        <v>1</v>
+      </c>
+      <c r="K1" s="2">
         <v>0.91</v>
       </c>
-      <c r="L1">
+      <c r="L1" s="2">
         <v>0.94099999999999995</v>
       </c>
-      <c r="M1">
-        <v>1</v>
-      </c>
-      <c r="N1">
+      <c r="M1" s="2">
+        <v>1</v>
+      </c>
+      <c r="N1" s="2">
         <v>0.21640000000000001</v>
       </c>
-      <c r="O1">
-        <v>0</v>
-      </c>
-      <c r="P1">
+      <c r="O1" s="2">
+        <v>0</v>
+      </c>
+      <c r="P1" s="2">
         <v>0.20985999999999999</v>
       </c>
-      <c r="Q1">
-        <v>0</v>
-      </c>
-      <c r="R1">
+      <c r="Q1" s="2">
+        <v>0</v>
+      </c>
+      <c r="R1" s="2">
         <v>1.4603999999999999</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" s="3">
         <v>0.28399999999999997</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>1.248E-2</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="5">
         <v>1.8500000000000001E-3</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3">
         <v>0.1</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>1</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0</v>
+      </c>
+      <c r="R2" s="2">
         <v>0.32768999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3">
+      <c r="A3" s="3">
         <v>0.88541999999999998</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>2.1514999999999999E-2</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="5">
         <v>3.9824999999999999E-3</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>0.61</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <v>0.39</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="3">
         <v>0.1</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="3">
         <v>0.1</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="2">
         <v>3400</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="2">
         <v>132.1</v>
       </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
+      <c r="J3" s="2">
+        <v>1</v>
+      </c>
+      <c r="K3" s="2">
         <v>0.91</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="2">
         <v>0.94099999999999995</v>
       </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3">
+      <c r="M3" s="2">
+        <v>1</v>
+      </c>
+      <c r="N3" s="2">
         <v>0.26896999999999999</v>
       </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
+      <c r="O3" s="2">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2">
         <v>0.26085000000000003</v>
       </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
+      <c r="Q3" s="2">
+        <v>0</v>
+      </c>
+      <c r="R3" s="2">
         <v>5.9404000000000003</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4">
+      <c r="A4" s="3">
         <v>0.89429999999999998</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>2.0480000000000002E-2</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="5">
         <v>3.6900000000000001E-3</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>0.06</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <v>0.94</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <v>0.1</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="3">
         <v>0.1</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="2">
         <v>3890</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="2">
         <v>168.9</v>
       </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
+      <c r="J4" s="2">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2">
         <v>0.91</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="2">
         <v>0.94099999999999995</v>
       </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="N4">
+      <c r="M4" s="2">
+        <v>1</v>
+      </c>
+      <c r="N4" s="2">
         <v>0.14954000000000001</v>
       </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
+      <c r="O4" s="2">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2">
         <v>0.14502999999999999</v>
       </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
+      <c r="Q4" s="2">
+        <v>0</v>
+      </c>
+      <c r="R4" s="2">
         <v>12.705</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="A5" s="3">
         <v>0.88849999999999996</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>2.112E-2</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="5">
         <v>4.1900000000000001E-3</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>0.03</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <v>0.97</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3">
         <v>0.1</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="3">
         <v>0.1</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="2">
         <v>3450</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="2">
         <v>105</v>
       </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
+      <c r="J5" s="2">
+        <v>1</v>
+      </c>
+      <c r="K5" s="2">
         <v>0.91</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="2">
         <v>0.94099999999999995</v>
       </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="N5">
+      <c r="M5" s="2">
+        <v>1</v>
+      </c>
+      <c r="N5" s="2">
         <v>0.11372</v>
       </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
+      <c r="O5" s="2">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2">
         <v>0.11029</v>
       </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
+      <c r="Q5" s="2">
+        <v>0</v>
+      </c>
+      <c r="R5" s="2">
         <v>4.3407999999999998</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="A6" s="3">
         <v>0.89424999999999999</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>1.959E-2</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="5">
         <v>3.5199999999999997E-3</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
         <v>0.1</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="3">
         <v>0.1</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="2">
         <v>3390</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="2">
         <v>113</v>
       </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
+      <c r="J6" s="2">
+        <v>1</v>
+      </c>
+      <c r="K6" s="2">
         <v>0.91</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="2">
         <v>0.94099999999999995</v>
       </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-      <c r="N6">
+      <c r="M6" s="2">
+        <v>1</v>
+      </c>
+      <c r="N6" s="2">
         <v>0.28473999999999999</v>
       </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
+      <c r="O6" s="2">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2">
         <v>0.27614</v>
       </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
+      <c r="Q6" s="2">
+        <v>0</v>
+      </c>
+      <c r="R6" s="2">
         <v>4.5965999999999996</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="A7" s="3">
         <v>0.57999999999999996</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3">
         <v>1.272E-2</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="5">
         <v>2.0999999999999999E-3</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
         <v>0.1</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0</v>
+      </c>
+      <c r="R7" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="A8" s="3">
         <v>0.22275</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
         <v>1.601E-2</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="5">
         <v>2.4599999999999999E-3</v>
       </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
         <v>0.1</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="3">
         <v>0.1</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="2">
         <v>770</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="2">
         <v>20.2</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="2">
         <v>2</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="2">
         <v>0.91</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="2">
         <v>0.94099999999999995</v>
       </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
-      <c r="N8">
+      <c r="M8" s="2">
+        <v>1</v>
+      </c>
+      <c r="N8" s="2">
         <v>2.8899999999999999E-2</v>
       </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
+      <c r="O8" s="2">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2">
         <v>2.8027E-2</v>
       </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
+      <c r="Q8" s="2">
+        <v>0</v>
+      </c>
+      <c r="R8" s="2">
         <v>0.25731999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="A9" s="3">
         <v>0.88049999999999995</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <v>2.1680000000000001E-2</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="5">
         <v>3.7199999999999998E-3</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="3">
         <v>0.17</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3">
         <v>0.83</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="3">
         <v>0.1</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="3">
         <v>0.1</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="2">
         <v>3380</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="2">
         <v>103.4</v>
       </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9">
+      <c r="J9" s="2">
+        <v>1</v>
+      </c>
+      <c r="K9" s="2">
         <v>0.91</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="2">
         <v>0.94099999999999995</v>
       </c>
-      <c r="M9">
-        <v>1</v>
-      </c>
-      <c r="N9">
+      <c r="M9" s="2">
+        <v>1</v>
+      </c>
+      <c r="N9" s="2">
         <v>0.13743</v>
       </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
+      <c r="O9" s="2">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2">
         <v>0.13328000000000001</v>
       </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
+      <c r="Q9" s="2">
+        <v>0</v>
+      </c>
+      <c r="R9" s="2">
         <v>29.815999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="A10" s="3">
         <v>0.90349999999999997</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="3">
         <v>2.7890000000000002E-2</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="5">
         <v>2.6099999999999999E-3</v>
       </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3">
         <v>0.1</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1</v>
-      </c>
-      <c r="N10">
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>1</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1</v>
+      </c>
+      <c r="N10" s="2">
         <v>0.11728</v>
       </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
+      <c r="O10" s="2">
+        <v>0</v>
+      </c>
+      <c r="P10" s="2">
         <v>0.11373999999999999</v>
       </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
+      <c r="Q10" s="2">
+        <v>0</v>
+      </c>
+      <c r="R10" s="2">
         <v>1.4938</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11">
+      <c r="A11" s="3">
         <v>0.86667000000000005</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="3">
         <v>1.2666999999999999E-2</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="5">
         <v>6.6E-3</v>
       </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
         <v>0.1</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>1</v>
-      </c>
-      <c r="N11">
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <v>1</v>
+      </c>
+      <c r="L11" s="2">
+        <v>1</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1</v>
+      </c>
+      <c r="N11" s="2">
         <v>0.11728</v>
       </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
+      <c r="O11" s="2">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2">
         <v>0.11373999999999999</v>
       </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
+      <c r="Q11" s="2">
+        <v>0</v>
+      </c>
+      <c r="R11" s="2">
         <v>2.1964000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12">
+      <c r="A12" s="3">
         <v>0.90575000000000006</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="3">
         <v>6.5350000000000005E-2</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="5">
         <v>6.5900000000000004E-3</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="3">
         <v>0.02</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="3">
         <v>0.98</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="3">
         <v>0.1</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="3">
         <v>0.1</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="2">
         <v>1470</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="2">
         <v>129.5</v>
       </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12">
+      <c r="J12" s="2">
+        <v>1</v>
+      </c>
+      <c r="K12" s="2">
         <v>0.91</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="2">
         <v>0.94099999999999995</v>
       </c>
-      <c r="M12">
-        <v>1</v>
-      </c>
-      <c r="N12">
+      <c r="M12" s="2">
+        <v>1</v>
+      </c>
+      <c r="N12" s="2">
         <v>0.37485000000000002</v>
       </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
+      <c r="O12" s="2">
+        <v>0</v>
+      </c>
+      <c r="P12" s="2">
         <v>0.36353000000000002</v>
       </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
+      <c r="Q12" s="2">
+        <v>0</v>
+      </c>
+      <c r="R12" s="2">
         <v>4.0646000000000004</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13">
+      <c r="A13" s="3">
+        <v>1</v>
+      </c>
+      <c r="B13" s="3">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="5">
         <v>5.5115565546219394E-3</v>
       </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N13" s="2">
+        <v>0.45265</v>
+      </c>
+      <c r="O13" s="2">
+        <v>3.4299999999999997E-2</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0.43897999999999998</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>0.10922</v>
+      </c>
+      <c r="R13" s="2">
+        <v>8.9337999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>1</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="C14" s="5">
+        <v>4.4092452436975517E-3</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="N14" s="2">
+        <v>0.45265</v>
+      </c>
+      <c r="O14" s="2">
+        <v>3.4299999999999997E-2</v>
+      </c>
+      <c r="P14" s="2">
+        <v>0.43897999999999998</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>0.10922</v>
+      </c>
+      <c r="R14" s="2">
+        <v>17.864999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>0.88924999999999998</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1.4069999999999999E-2</v>
+      </c>
+      <c r="C15" s="5">
+        <v>3.3E-3</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
         <v>0.1</v>
       </c>
-      <c r="G13">
+      <c r="G15" s="3">
         <v>0.1</v>
       </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0.5</v>
-      </c>
-      <c r="L13">
-        <v>0.5</v>
-      </c>
-      <c r="M13">
-        <v>0.5</v>
-      </c>
-      <c r="N13">
-        <v>0.45265</v>
-      </c>
-      <c r="O13">
-        <v>3.4299999999999997E-2</v>
-      </c>
-      <c r="P13">
-        <v>0.43897999999999998</v>
-      </c>
-      <c r="Q13">
-        <v>0.10922</v>
-      </c>
-      <c r="R13">
-        <v>8.9337999999999997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14">
-        <v>0.02</v>
-      </c>
-      <c r="C14">
-        <v>4.4092452436975517E-3</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
+      <c r="H15" s="2">
+        <v>3580</v>
+      </c>
+      <c r="I15" s="2">
+        <v>65</v>
+      </c>
+      <c r="J15" s="2">
+        <v>2</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0.91</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="M15" s="2">
+        <v>1</v>
+      </c>
+      <c r="N15" s="2">
+        <v>0.11885999999999999</v>
+      </c>
+      <c r="O15" s="2">
+        <v>1.1235999999999999</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0.11527999999999999</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>3.5752000000000002</v>
+      </c>
+      <c r="R15" s="2">
+        <v>1.3791</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>0.93967000000000001</v>
+      </c>
+      <c r="B16" s="3">
+        <v>4.2900000000000001E-2</v>
+      </c>
+      <c r="C16" s="5">
+        <v>3.4999999999999996E-3</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3">
         <v>0.1</v>
       </c>
-      <c r="G14">
+      <c r="G16" s="3">
         <v>0.1</v>
       </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0.5</v>
-      </c>
-      <c r="L14">
-        <v>0.5</v>
-      </c>
-      <c r="M14">
-        <v>0.5</v>
-      </c>
-      <c r="N14">
-        <v>0.45265</v>
-      </c>
-      <c r="O14">
-        <v>3.4299999999999997E-2</v>
-      </c>
-      <c r="P14">
-        <v>0.43897999999999998</v>
-      </c>
-      <c r="Q14">
-        <v>0.10922</v>
-      </c>
-      <c r="R14">
-        <v>17.864999999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>0.88924999999999998</v>
-      </c>
-      <c r="B15">
-        <v>1.4069999999999999E-2</v>
-      </c>
-      <c r="C15">
-        <v>3.3E-3</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
+      <c r="H16" s="9">
+        <v>1500</v>
+      </c>
+      <c r="I16" s="9">
+        <v>260</v>
+      </c>
+      <c r="J16" s="2">
+        <v>2</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1</v>
+      </c>
+      <c r="L16" s="2">
+        <v>1</v>
+      </c>
+      <c r="M16" s="2">
+        <v>1</v>
+      </c>
+      <c r="N16" s="8">
+        <v>0</v>
+      </c>
+      <c r="O16" s="8">
+        <v>0</v>
+      </c>
+      <c r="P16" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="8">
+        <v>0</v>
+      </c>
+      <c r="R16" s="9">
+        <v>0.28021000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A17" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="B17" s="2">
+        <v>3.6600000000000001E-2</v>
+      </c>
+      <c r="C17" s="4">
+        <v>1.2E-2</v>
+      </c>
+      <c r="D17" s="8">
+        <v>0</v>
+      </c>
+      <c r="E17" s="8">
+        <v>1</v>
+      </c>
+      <c r="F17" s="8">
         <v>0.1</v>
       </c>
-      <c r="G15">
+      <c r="G17" s="8">
         <v>0.1</v>
       </c>
-      <c r="H15">
-        <v>3580</v>
-      </c>
-      <c r="I15">
-        <v>65</v>
-      </c>
-      <c r="J15">
-        <v>2</v>
-      </c>
-      <c r="K15">
-        <v>0.91</v>
-      </c>
-      <c r="L15">
-        <v>0.94099999999999995</v>
-      </c>
-      <c r="M15">
-        <v>1</v>
-      </c>
-      <c r="N15">
-        <v>0.11885999999999999</v>
-      </c>
-      <c r="O15">
-        <v>1.1235999999999999</v>
-      </c>
-      <c r="P15">
-        <v>0.11527999999999999</v>
-      </c>
-      <c r="Q15">
-        <v>3.5752000000000002</v>
-      </c>
-      <c r="R15">
-        <v>1.3791</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>0.93967000000000001</v>
-      </c>
-      <c r="B16">
-        <v>4.2900000000000001E-2</v>
-      </c>
-      <c r="C16">
-        <v>3.4999999999999996E-3</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
+      <c r="H17" s="4">
+        <v>3000</v>
+      </c>
+      <c r="I17" s="4">
+        <v>210</v>
+      </c>
+      <c r="J17" s="2">
+        <v>1</v>
+      </c>
+      <c r="K17" s="8">
+        <v>1</v>
+      </c>
+      <c r="L17" s="8">
+        <v>1</v>
+      </c>
+      <c r="M17" s="8">
+        <v>1</v>
+      </c>
+      <c r="N17" s="8">
+        <v>0.21640000000000001</v>
+      </c>
+      <c r="O17" s="8">
+        <v>0</v>
+      </c>
+      <c r="P17" s="8">
+        <v>0.20985999999999999</v>
+      </c>
+      <c r="Q17" s="8">
+        <v>0</v>
+      </c>
+      <c r="R17" s="8">
+        <v>1.4603999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A18" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.1045</v>
+      </c>
+      <c r="C18" s="4">
+        <v>6.3E-3</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0</v>
+      </c>
+      <c r="E18" s="8">
+        <v>1</v>
+      </c>
+      <c r="F18" s="8">
         <v>0.1</v>
       </c>
-      <c r="G16">
+      <c r="G18" s="8">
         <v>0.1</v>
       </c>
-      <c r="H16">
-        <v>1500</v>
-      </c>
-      <c r="I16">
-        <v>260</v>
-      </c>
-      <c r="J16">
-        <v>2</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>1</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>0.28021000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>1</v>
-      </c>
-      <c r="B17">
-        <v>3.6600000000000001E-2</v>
-      </c>
-      <c r="C17">
-        <v>1.2E-2</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
+      <c r="H18" s="4">
+        <v>3000</v>
+      </c>
+      <c r="I18" s="4">
+        <v>600</v>
+      </c>
+      <c r="J18" s="2">
+        <v>1</v>
+      </c>
+      <c r="K18" s="8">
+        <v>1</v>
+      </c>
+      <c r="L18" s="8">
+        <v>1</v>
+      </c>
+      <c r="M18" s="8">
+        <v>1</v>
+      </c>
+      <c r="N18" s="8">
+        <v>0.21640000000000001</v>
+      </c>
+      <c r="O18" s="8">
+        <v>0</v>
+      </c>
+      <c r="P18" s="8">
+        <v>0.20985999999999999</v>
+      </c>
+      <c r="Q18" s="8">
+        <v>0</v>
+      </c>
+      <c r="R18" s="8">
+        <v>1.4603999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A19" s="8">
+        <v>0.9</v>
+      </c>
+      <c r="B19" s="2">
+        <v>4.7735E-2</v>
+      </c>
+      <c r="C19" s="4">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D19" s="8">
+        <v>0</v>
+      </c>
+      <c r="E19" s="8">
+        <v>1</v>
+      </c>
+      <c r="F19" s="8">
         <v>0.1</v>
       </c>
-      <c r="H17">
+      <c r="G19" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="H19" s="4">
         <v>3000</v>
       </c>
-      <c r="I17">
-        <v>210</v>
-      </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>1</v>
-      </c>
-      <c r="N17">
+      <c r="I19" s="4">
+        <v>274</v>
+      </c>
+      <c r="J19" s="2">
+        <v>1</v>
+      </c>
+      <c r="K19" s="8">
+        <v>1</v>
+      </c>
+      <c r="L19" s="8">
+        <v>1</v>
+      </c>
+      <c r="M19" s="8">
+        <v>1</v>
+      </c>
+      <c r="N19" s="8">
         <v>0.21640000000000001</v>
       </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17">
+      <c r="O19" s="8">
+        <v>0</v>
+      </c>
+      <c r="P19" s="8">
         <v>0.20985999999999999</v>
       </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>1.4603999999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="B18">
-        <v>0.1045</v>
-      </c>
-      <c r="C18">
-        <v>6.3E-3</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0.1</v>
-      </c>
-      <c r="H18">
-        <v>3000</v>
-      </c>
-      <c r="I18">
-        <v>600</v>
-      </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>1</v>
-      </c>
-      <c r="N18">
-        <v>0.21640000000000001</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>0.20985999999999999</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>1.4603999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>1</v>
-      </c>
-      <c r="B19">
-        <v>4.7735E-2</v>
-      </c>
-      <c r="C19">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0.1</v>
-      </c>
-      <c r="H19">
-        <v>3000</v>
-      </c>
-      <c r="I19">
-        <v>274</v>
-      </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>1</v>
-      </c>
-      <c r="N19">
-        <v>0.21640000000000001</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <v>0.20985999999999999</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
+      <c r="Q19" s="8">
+        <v>0</v>
+      </c>
+      <c r="R19" s="8">
         <v>1.4603999999999999</v>
       </c>
     </row>
